--- a/labor_planner/tests/data/outputs/summary.xlsx
+++ b/labor_planner/tests/data/outputs/summary.xlsx
@@ -1003,14 +1003,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="sheet_0!a1" tooltip="Click name to open project workbook."/>
-    <hyperlink ref="A3" r:id="rId2" location="sheet_1!a1" tooltip="Click name to open project workbook."/>
+    <hyperlink ref="A2" r:id="rId1" location="sheet_2!a1" tooltip="Click name to open project workbook."/>
+    <hyperlink ref="A3" r:id="rId2" location="sheet_3!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A4" r:id="rId3" location="sheet_4!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A5" r:id="rId4" location="sheet_5!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A6" r:id="rId5" location="sheet_6!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A7" r:id="rId6" location="sheet_7!a1" tooltip="Click name to open project workbook."/>
-    <hyperlink ref="A8" r:id="rId7" location="sheet_2!a1" tooltip="Click name to open project workbook."/>
-    <hyperlink ref="A9" r:id="rId8" location="sheet_3!a1" tooltip="Click name to open project workbook."/>
+    <hyperlink ref="A8" r:id="rId7" location="sheet_0!a1" tooltip="Click name to open project workbook."/>
+    <hyperlink ref="A9" r:id="rId8" location="sheet_1!a1" tooltip="Click name to open project workbook."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1129,12 +1129,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="sheet_1!a1" tooltip="Click name to open project workbook."/>
-    <hyperlink ref="A3" r:id="rId2" location="sheet_0!a1" tooltip="Click name to open project workbook."/>
+    <hyperlink ref="A2" r:id="rId1" location="sheet_3!a1" tooltip="Click name to open project workbook."/>
+    <hyperlink ref="A3" r:id="rId2" location="sheet_2!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A4" r:id="rId3" location="sheet_4!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A5" r:id="rId4" location="sheet_5!a1" tooltip="Click name to open project workbook."/>
-    <hyperlink ref="A6" r:id="rId5" location="sheet_2!a1" tooltip="Click name to open project workbook."/>
-    <hyperlink ref="A7" r:id="rId6" location="sheet_3!a1" tooltip="Click name to open project workbook."/>
+    <hyperlink ref="A6" r:id="rId5" location="sheet_0!a1" tooltip="Click name to open project workbook."/>
+    <hyperlink ref="A7" r:id="rId6" location="sheet_1!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A8" r:id="rId7" location="sheet_6!a1" tooltip="Click name to open project workbook."/>
     <hyperlink ref="A9" r:id="rId8" location="sheet_7!a1" tooltip="Click name to open project workbook."/>
   </hyperlinks>
